--- a/files/PPS-WON_BPF_Particuliere_Beveiliging_v2.0.xlsx
+++ b/files/PPS-WON_BPF_Particuliere_Beveiliging_v2.0.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28622"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pvdk/Develop/example_POI/files/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="787"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="18240" tabRatio="787"/>
   </bookViews>
   <sheets>
     <sheet name="Invoer" sheetId="13" r:id="rId1"/>
@@ -29,11 +24,8 @@
     <definedName name="tabwerkdagen">Rekenwaarden!$B$12:$E$23</definedName>
     <definedName name="tarief_SDS2017">'SDS 2017'!$A$4:$DW$91</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -686,24 +678,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="16">
-    <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00;&quot;€&quot;\ \-#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;_-* #,##0\-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.000_-;_-* #,##0.000\-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.000_-;_-* #,##0.000\-;_-* &quot;-&quot;???_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.0000_-;_-* #,##0.0000\-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
-    <numFmt numFmtId="174" formatCode="[$-413]d\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="175" formatCode="0.0000%"/>
-    <numFmt numFmtId="176" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="177" formatCode="0_ ;\-0\ "/>
-    <numFmt numFmtId="178" formatCode="0.0000"/>
-    <numFmt numFmtId="179" formatCode="0.00000"/>
+    <numFmt numFmtId="7" formatCode="&quot;€&quot;\ #,##0.00;&quot;€&quot;\ \-#,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;_-* #,##0\-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;_-* #,##0.000\-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.000_-;_-* #,##0.000\-;_-* &quot;-&quot;???_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.0000_-;_-* #,##0.0000\-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="[$-413]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="173" formatCode="0.0000%"/>
+    <numFmt numFmtId="174" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="175" formatCode="0_ ;\-0\ "/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="66" x14ac:knownFonts="1">
+  <fonts count="66">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1975,71 +1967,71 @@
   </borders>
   <cellStyleXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="51" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="16" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="16" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="51" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="52" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="52" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="20" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="20" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2047,29 +2039,29 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="38" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="38" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="32" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="32" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="37" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="37" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="39" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="39" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="54" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="54" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="11" fillId="8" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="44" fillId="8" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="11" fillId="8" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="44" fillId="8" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="46" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="46" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="51" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2078,46 +2070,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="50" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="50" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="52" fillId="51" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="53" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="53" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2125,7 +2117,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
@@ -2133,7 +2125,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2147,7 +2139,7 @@
     </xf>
     <xf numFmtId="10" fontId="60" fillId="0" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="60" fillId="0" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="55" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="55" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2166,18 +2158,18 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2185,7 +2177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2227,9 +2219,9 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="35" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="55" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="55" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="61" fillId="56" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2266,7 +2258,7 @@
     <xf numFmtId="0" fontId="3" fillId="56" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="56" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="56" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="56" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2297,7 +2289,7 @@
     <xf numFmtId="14" fontId="3" fillId="57" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="57" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="3" fillId="57" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="57" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="57" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2315,20 +2307,20 @@
     <xf numFmtId="0" fontId="3" fillId="58" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="58" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="58" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="58" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="58" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="58" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="58" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="58" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="58" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="58" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="58" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="58" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="56" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="56" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="56" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="56" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="56" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="56" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="56" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="56" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="56" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="56" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="56" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="56" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2338,27 +2330,27 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="33" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="33" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="60" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="60" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="60" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="60" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="58" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="58" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="58" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="58" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="56" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="56" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="56" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="57" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="57" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="57" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="57" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="57" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="3" fillId="57" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="3" fillId="57" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="3" fillId="57" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="3" fillId="57" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2375,16 +2367,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="57" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2401,17 +2393,17 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="33" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="3" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="33" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="33" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="33" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="33" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="33" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="33" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="33" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2429,8 +2421,8 @@
     <xf numFmtId="1" fontId="33" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="3" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2446,7 +2438,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="61" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="61" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="61" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2455,9 +2447,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="33" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2471,16 +2463,16 @@
     <xf numFmtId="10" fontId="33" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="33" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="33" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="60" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="60" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="60" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="60" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="33" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2492,8 +2484,8 @@
     <xf numFmtId="10" fontId="60" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="58" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="58" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="3" fillId="58" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="3" fillId="58" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="58" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="57" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2517,13 +2509,7 @@
     <xf numFmtId="1" fontId="4" fillId="59" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="61" fillId="56" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="56" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2531,6 +2517,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="61" fillId="56" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="56" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="124">
     <cellStyle name="20% - Accent1 2" xfId="6"/>
@@ -2967,27 +2960,27 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20:Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
-    <col min="12" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" customWidth="1"/>
-    <col min="17" max="17" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="A1" s="66">
         <v>1</v>
       </c>
@@ -3041,7 +3034,7 @@
       </c>
       <c r="R1" s="25"/>
     </row>
-    <row r="2" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="25.5" customHeight="1">
       <c r="A2" s="94" t="s">
         <v>10</v>
       </c>
@@ -3095,7 +3088,7 @@
       </c>
       <c r="R2" s="25"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18">
       <c r="A3" s="49">
         <v>1</v>
       </c>
@@ -3149,7 +3142,7 @@
       </c>
       <c r="R3" s="25"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="A4" s="51">
         <v>2</v>
       </c>
@@ -3203,7 +3196,7 @@
       </c>
       <c r="R4" s="25"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="A5" s="51">
         <v>3</v>
       </c>
@@ -3257,7 +3250,7 @@
       </c>
       <c r="R5" s="25"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="A6" s="51">
         <v>4</v>
       </c>
@@ -3311,7 +3304,7 @@
       </c>
       <c r="R6" s="25"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="A7" s="51">
         <v>5</v>
       </c>
@@ -3361,7 +3354,7 @@
       </c>
       <c r="R7" s="25"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="A8" s="53">
         <v>6</v>
       </c>
@@ -3410,8 +3403,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" s="53"/>
+    <row r="9" spans="1:18">
+      <c r="A9" s="53">
+        <v>7</v>
+      </c>
       <c r="B9" s="54"/>
       <c r="C9" s="69"/>
       <c r="D9" s="186"/>
@@ -3429,104 +3424,56 @@
       <c r="P9" s="56"/>
       <c r="Q9" s="57"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A10" s="53">
-        <v>98</v>
-      </c>
-      <c r="B10" s="224">
+    <row r="10" spans="1:18">
+      <c r="A10" s="225">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="53">
+        <v>9</v>
+      </c>
+      <c r="B11" s="222">
         <v>1234</v>
       </c>
-      <c r="C10" s="225" t="s">
+      <c r="C11" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="188">
+      <c r="D11" s="188">
         <v>21897</v>
       </c>
-      <c r="E10" s="73">
+      <c r="E11" s="73">
         <v>42736</v>
       </c>
-      <c r="F10" s="226">
+      <c r="F11" s="224">
         <v>42767</v>
       </c>
-      <c r="G10" s="183">
+      <c r="G11" s="183">
         <v>38.5</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H11" s="69">
         <v>140</v>
       </c>
-      <c r="I10" s="69">
+      <c r="I11" s="69">
         <v>40</v>
       </c>
-      <c r="J10" s="225" t="s">
+      <c r="J11" s="223" t="s">
         <v>157</v>
       </c>
-      <c r="K10" s="225" t="s">
+      <c r="K11" s="223" t="s">
         <v>164</v>
       </c>
-      <c r="L10" s="55">
+      <c r="L11" s="55">
         <v>84000</v>
       </c>
-      <c r="M10" s="55">
-        <v>0</v>
-      </c>
-      <c r="N10" s="55">
+      <c r="M11" s="55">
+        <v>0</v>
+      </c>
+      <c r="N11" s="55">
         <v>15000</v>
       </c>
-      <c r="O10" s="169">
+      <c r="O11" s="169">
         <v>1234</v>
-      </c>
-      <c r="P10" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="57">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A11" s="53">
-        <v>97</v>
-      </c>
-      <c r="B11" s="224">
-        <v>6789</v>
-      </c>
-      <c r="C11" s="225" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="226">
-        <v>25550</v>
-      </c>
-      <c r="E11" s="226">
-        <v>43132</v>
-      </c>
-      <c r="F11" s="226">
-        <v>43191</v>
-      </c>
-      <c r="G11" s="183">
-        <v>45.65</v>
-      </c>
-      <c r="H11" s="69">
-        <v>131</v>
-      </c>
-      <c r="I11" s="69">
-        <v>39</v>
-      </c>
-      <c r="J11" s="225" t="s">
-        <v>157</v>
-      </c>
-      <c r="K11" s="225" t="s">
-        <v>166</v>
-      </c>
-      <c r="L11" s="55">
-        <v>32768</v>
-      </c>
-      <c r="M11" s="55">
-        <v>456</v>
-      </c>
-      <c r="N11" s="55">
-        <v>13456</v>
-      </c>
-      <c r="O11" s="169">
-        <v>4056000</v>
       </c>
       <c r="P11" s="56" t="s">
         <v>31</v>
@@ -3535,27 +3482,63 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="169"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="57"/>
+    <row r="12" spans="1:18">
+      <c r="A12" s="53">
+        <v>10</v>
+      </c>
+      <c r="B12" s="222">
+        <v>6789</v>
+      </c>
+      <c r="C12" s="223" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="224">
+        <v>25550</v>
+      </c>
+      <c r="E12" s="224">
+        <v>43132</v>
+      </c>
+      <c r="F12" s="224">
+        <v>43191</v>
+      </c>
+      <c r="G12" s="183">
+        <v>45.65</v>
+      </c>
+      <c r="H12" s="69">
+        <v>131</v>
+      </c>
+      <c r="I12" s="69">
+        <v>39</v>
+      </c>
+      <c r="J12" s="223" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="223" t="s">
+        <v>166</v>
+      </c>
+      <c r="L12" s="55">
+        <v>32768</v>
+      </c>
+      <c r="M12" s="55">
+        <v>456</v>
+      </c>
+      <c r="N12" s="55">
+        <v>13456</v>
+      </c>
+      <c r="O12" s="169">
+        <v>4056000</v>
+      </c>
+      <c r="P12" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="57">
+        <v>67</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A13" s="53"/>
+    <row r="13" spans="1:18">
+      <c r="A13" s="53">
+        <v>11</v>
+      </c>
       <c r="B13" s="54"/>
       <c r="C13" s="69"/>
       <c r="D13" s="186"/>
@@ -3573,8 +3556,10 @@
       <c r="P13" s="56"/>
       <c r="Q13" s="57"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
+    <row r="14" spans="1:18">
+      <c r="A14" s="53">
+        <v>12</v>
+      </c>
       <c r="B14" s="54"/>
       <c r="C14" s="69"/>
       <c r="D14" s="186"/>
@@ -3592,8 +3577,10 @@
       <c r="P14" s="56"/>
       <c r="Q14" s="57"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A15" s="53"/>
+    <row r="15" spans="1:18">
+      <c r="A15" s="53">
+        <v>13</v>
+      </c>
       <c r="B15" s="54"/>
       <c r="C15" s="69"/>
       <c r="D15" s="186"/>
@@ -3611,8 +3598,10 @@
       <c r="P15" s="56"/>
       <c r="Q15" s="57"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
+    <row r="16" spans="1:18">
+      <c r="A16" s="53">
+        <v>14</v>
+      </c>
       <c r="B16" s="54"/>
       <c r="C16" s="69"/>
       <c r="D16" s="186"/>
@@ -3630,8 +3619,10 @@
       <c r="P16" s="56"/>
       <c r="Q16" s="57"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="53"/>
+    <row r="17" spans="1:17">
+      <c r="A17" s="53">
+        <v>15</v>
+      </c>
       <c r="B17" s="54"/>
       <c r="C17" s="69"/>
       <c r="D17" s="186"/>
@@ -3649,8 +3640,10 @@
       <c r="P17" s="56"/>
       <c r="Q17" s="57"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
+    <row r="18" spans="1:17">
+      <c r="A18" s="53">
+        <v>16</v>
+      </c>
       <c r="B18" s="54"/>
       <c r="C18" s="69"/>
       <c r="D18" s="186"/>
@@ -3668,8 +3661,10 @@
       <c r="P18" s="54"/>
       <c r="Q18" s="58"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="53"/>
+    <row r="19" spans="1:17">
+      <c r="A19" s="53">
+        <v>17</v>
+      </c>
       <c r="B19" s="54"/>
       <c r="C19" s="69"/>
       <c r="D19" s="186"/>
@@ -3687,45 +3682,49 @@
       <c r="P19" s="54"/>
       <c r="Q19" s="58"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="186"/>
+    <row r="20" spans="1:17">
+      <c r="A20" s="53">
+        <v>98</v>
+      </c>
+      <c r="B20" s="222"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="188"/>
       <c r="E20" s="73"/>
-      <c r="F20" s="186"/>
+      <c r="F20" s="224"/>
       <c r="G20" s="183"/>
       <c r="H20" s="69"/>
       <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
+      <c r="J20" s="223"/>
+      <c r="K20" s="223"/>
       <c r="L20" s="55"/>
       <c r="M20" s="55"/>
       <c r="N20" s="55"/>
       <c r="O20" s="169"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="58"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="57"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="186"/>
+    <row r="21" spans="1:17">
+      <c r="A21" s="53">
+        <v>97</v>
+      </c>
+      <c r="B21" s="222"/>
+      <c r="C21" s="223"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="224"/>
       <c r="G21" s="183"/>
       <c r="H21" s="69"/>
       <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
+      <c r="J21" s="223"/>
+      <c r="K21" s="223"/>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
       <c r="N21" s="55"/>
       <c r="O21" s="169"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="58"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="57"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17">
       <c r="A22" s="59">
         <v>99</v>
       </c>
@@ -3746,19 +3745,19 @@
       <c r="P22" s="60"/>
       <c r="Q22" s="62"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17">
       <c r="C23" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Rekendatum" error="Rekendatum moet na 31-12-2016 liggen." sqref="E3:E10 E12:E22">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Rekendatum" error="Rekendatum moet na 31-12-2016 liggen." sqref="E22 E3:E9 E13:E20 E11">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C9 C11:C22">
       <formula1>"M,V"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J9 J11:J22">
       <formula1>"Maand,4 weken"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3772,7 +3771,7 @@
           <x14:formula1>
             <xm:f>Rekenwaarden!$B$12:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K22</xm:sqref>
+          <xm:sqref>K3:K9 K11:K22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3789,27 +3788,27 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="26.83203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
-    <col min="13" max="13" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
-    <col min="15" max="15" width="10.5" customWidth="1"/>
-    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="13.5" thickBot="1">
       <c r="A1">
         <v>0</v>
       </c>
@@ -3826,7 +3825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="13.5" thickBot="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3835,7 +3834,7 @@
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="220">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="121" t="s">
@@ -3848,7 +3847,7 @@
       </c>
       <c r="J2" s="45"/>
     </row>
-    <row r="3" spans="1:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="13.5" thickBot="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3862,7 +3861,7 @@
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3874,7 +3873,7 @@
       </c>
       <c r="D4" s="104">
         <f t="shared" ref="D4:D16" si="0">VLOOKUP(invnrPPS,Invoer,C4)</f>
-        <v>1234</v>
+        <v>1234567</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="123" t="s">
@@ -3882,7 +3881,7 @@
       </c>
       <c r="G4" s="208">
         <f>IF($D$12="Maand",VLOOKUP($D$13,tabwerkdagen,4,FALSE),20)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="132" t="s">
         <v>33</v>
@@ -3891,7 +3890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3918,10 +3917,10 @@
       </c>
       <c r="J5" s="135">
         <f>D19-G12</f>
-        <v>9.9166700000000034</v>
+        <v>12.5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="B6" s="105" t="s">
         <v>1</v>
       </c>
@@ -3930,7 +3929,7 @@
       </c>
       <c r="D6" s="108">
         <f t="shared" si="0"/>
-        <v>21897</v>
+        <v>22865</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="124" t="s">
@@ -3938,20 +3937,20 @@
       </c>
       <c r="G6" s="210">
         <f>MIN(1,$D$10/($D$11/5*$G$4))</f>
-        <v>0.79545454545454541</v>
+        <v>1</v>
       </c>
       <c r="I6" s="134" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="136">
         <f>G21</f>
-        <v>8.5814843460286312</v>
+        <v>14.716912526108777</v>
       </c>
       <c r="K6" s="2"/>
       <c r="M6" s="25"/>
       <c r="N6" s="193"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="B7" s="105" t="s">
         <v>2</v>
       </c>
@@ -3960,7 +3959,7 @@
       </c>
       <c r="D7" s="108">
         <f t="shared" si="0"/>
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="124" t="s">
@@ -3968,7 +3967,7 @@
       </c>
       <c r="G7" s="125">
         <f>$D$9*(1+VLOOKUP(YEAR(D7),tabsalaris,4+$E$17,FALSE))</f>
-        <v>41.580000000000005</v>
+        <v>17.307692307648001</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="134"/>
@@ -3976,7 +3975,7 @@
       <c r="M7" s="25"/>
       <c r="N7" s="194"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="B8" s="105" t="s">
         <v>13</v>
       </c>
@@ -3985,7 +3984,7 @@
       </c>
       <c r="D8" s="108">
         <f t="shared" si="0"/>
-        <v>42767</v>
+        <v>42920</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="124" t="s">
@@ -3993,7 +3992,7 @@
       </c>
       <c r="G8" s="125">
         <f>($G$7*$D$11/5*$G$5)</f>
-        <v>86486.400000000009</v>
+        <v>35999.999999907843</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="134" t="s">
@@ -4001,12 +4000,12 @@
       </c>
       <c r="J8" s="149">
         <f>G23</f>
-        <v>4358.7075290348621</v>
+        <v>4512.7940570059955</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="B9" s="105" t="s">
         <v>151</v>
       </c>
@@ -4015,7 +4014,7 @@
       </c>
       <c r="D9" s="152">
         <f t="shared" si="0"/>
-        <v>38.5</v>
+        <v>16.025641025599999</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="124" t="s">
@@ -4031,13 +4030,13 @@
       </c>
       <c r="J9" s="149">
         <f>G24</f>
-        <v>3051.1467592304798</v>
+        <v>3158.985273729249</v>
       </c>
       <c r="L9" s="221"/>
       <c r="M9" s="25"/>
       <c r="N9" s="195"/>
     </row>
-    <row r="10" spans="1:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="13.5" thickBot="1">
       <c r="B10" s="105" t="s">
         <v>153</v>
       </c>
@@ -4046,7 +4045,7 @@
       </c>
       <c r="D10" s="152">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="124" t="s">
@@ -4062,11 +4061,11 @@
       </c>
       <c r="J10" s="142">
         <f>G25</f>
-        <v>0</v>
+        <v>6056.4111437965048</v>
       </c>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="13.5" thickBot="1">
       <c r="B11" s="105" t="s">
         <v>154</v>
       </c>
@@ -4083,14 +4082,14 @@
       </c>
       <c r="G11" s="125">
         <f>MAX((MIN($G$8,$G$9)-$G$10)*$G$6,0)</f>
-        <v>27089.204545454544</v>
+        <v>16353.999999907843</v>
       </c>
       <c r="H11" s="44"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="N11" s="195"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="B12" s="105" t="s">
         <v>156</v>
       </c>
@@ -4107,7 +4106,7 @@
       </c>
       <c r="G12" s="125">
         <f>ROUND(YEAR($D$7)-YEAR($D$6)+(MONTH($D$7)-MONTH($D$6))/12+IF(DAY($D$7)&gt;15,1/12,0),5)</f>
-        <v>57.083329999999997</v>
+        <v>54.5</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="140" t="s">
@@ -4115,12 +4114,12 @@
       </c>
       <c r="J12" s="150">
         <f>IF(G23=0,0,D16/G15)</f>
-        <v>983.86462022825651</v>
+        <v>0</v>
       </c>
       <c r="K12" s="9"/>
       <c r="N12" s="195"/>
     </row>
-    <row r="13" spans="1:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="13.5" thickBot="1">
       <c r="B13" s="105" t="s">
         <v>187</v>
       </c>
@@ -4129,7 +4128,7 @@
       </c>
       <c r="D13" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>Januari</v>
+        <v>Maart</v>
       </c>
       <c r="E13" s="45"/>
       <c r="F13" s="124" t="s">
@@ -4137,7 +4136,7 @@
       </c>
       <c r="G13" s="125">
         <f>ROUND(YEAR($D$8)-YEAR($D$6)+(MONTH($D$8)-MONTH($D$6))/12+IF(DAY($D$8)&gt;15,1/12,0),5)</f>
-        <v>57.166670000000003</v>
+        <v>54.916670000000003</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="134" t="s">
@@ -4145,12 +4144,12 @@
       </c>
       <c r="J13" s="151">
         <f>G25</f>
-        <v>0</v>
+        <v>6056.4111437965048</v>
       </c>
       <c r="L13" s="11"/>
       <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="1:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="13.5" thickBot="1">
       <c r="B14" s="105" t="s">
         <v>3</v>
       </c>
@@ -4159,7 +4158,7 @@
       </c>
       <c r="D14" s="152">
         <f t="shared" si="0"/>
-        <v>84000</v>
+        <v>50000</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="124" t="s">
@@ -4167,7 +4166,7 @@
       </c>
       <c r="G14" s="147">
         <f>ROUND($G$11*VLOOKUP(YEAR($D$7),tabsalaris,5),2)</f>
-        <v>507.92</v>
+        <v>306.64</v>
       </c>
       <c r="H14" s="143">
         <f>16+IF(gesl="V",1,0)</f>
@@ -4180,7 +4179,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="B15" s="105" t="s">
         <v>14</v>
       </c>
@@ -4189,14 +4188,14 @@
       </c>
       <c r="D15" s="152">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="F15" s="124" t="s">
         <v>38</v>
       </c>
       <c r="G15" s="126">
         <f>ROUND((INT($G$12)+1-$G$12)*VLOOKUP(INT($G$12),tarief_SDS2017,H14,FALSE)+($G$12-INT($G$12))*VLOOKUP(INT($G$12)+1,tarief_SDS2017,H14,FALSE),3)</f>
-        <v>15.246</v>
+        <v>14.79</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="134" t="s">
@@ -4210,7 +4209,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="13.5" thickBot="1">
       <c r="B16" s="105" t="s">
         <v>15</v>
       </c>
@@ -4219,7 +4218,7 @@
       </c>
       <c r="D16" s="152">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="127" t="s">
@@ -4227,7 +4226,7 @@
       </c>
       <c r="G16" s="147">
         <f>ROUND($G$14*$G$15,5)</f>
-        <v>7743.7483199999997</v>
+        <v>4535.2056000000002</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="139" t="s">
@@ -4241,7 +4240,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="2:18" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" ht="13.5" thickBot="1">
       <c r="B17" s="105" t="s">
         <v>147</v>
       </c>
@@ -4250,7 +4249,7 @@
       </c>
       <c r="D17" s="167">
         <f t="shared" ref="D17" si="1">VLOOKUP(invnrPPS,Invoer,C17)</f>
-        <v>1234</v>
+        <v>1234567</v>
       </c>
       <c r="E17" s="170">
         <f>IF(ISNA(VLOOKUP($D$17,Rekenwaarden!L4:M6,2,FALSE)),0,5)</f>
@@ -4261,7 +4260,7 @@
       </c>
       <c r="G17" s="147">
         <f>ROUND($G$11*VLOOKUP(YEAR($D$7),tabsalaris,6),2)</f>
-        <v>355.55</v>
+        <v>214.65</v>
       </c>
       <c r="H17" s="143">
         <f>78+IF(gesl="V",1,0)</f>
@@ -4273,7 +4272,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:18">
       <c r="B18" s="105" t="s">
         <v>112</v>
       </c>
@@ -4290,14 +4289,14 @@
       </c>
       <c r="G18" s="126">
         <f>ROUND((INT($G$12)+1-$G$12)*VLOOKUP(INT($G$12),tarief_SDS2017,H17,FALSE)+($G$12-INT($G$12))*VLOOKUP(INT($G$12)+1,tarief_SDS2017,H17,FALSE),3)</f>
-        <v>5.7510000000000003</v>
+        <v>5.7789999999999999</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="2:18" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" ht="13.5" thickBot="1">
       <c r="B19" s="109" t="s">
         <v>8</v>
       </c>
@@ -4314,7 +4313,7 @@
       </c>
       <c r="G19" s="148">
         <f>ROUND($G$17*$G$18,5)</f>
-        <v>2044.7680499999999</v>
+        <v>1240.46235</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
@@ -4324,7 +4323,7 @@
       <c r="P19" s="6"/>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="2:18" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" ht="13.5" thickBot="1">
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4336,7 +4335,7 @@
       <c r="O20" s="6"/>
       <c r="R20" s="6"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:18">
       <c r="B21" s="112" t="s">
         <v>18</v>
       </c>
@@ -4348,7 +4347,7 @@
       </c>
       <c r="G21" s="129">
         <f>IF((G16+G19)=0,0,(D14+D15)/(G16+G19))</f>
-        <v>8.5814843460286312</v>
+        <v>14.716912526108777</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="25"/>
@@ -4356,7 +4355,7 @@
       <c r="O21" s="6"/>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:18">
       <c r="B22" s="115"/>
       <c r="C22" s="116"/>
       <c r="D22" s="117"/>
@@ -4369,7 +4368,7 @@
       <c r="N22" s="12"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:18">
       <c r="B23" s="105" t="s">
         <v>19</v>
       </c>
@@ -4381,7 +4380,7 @@
       </c>
       <c r="G23" s="147">
         <f>G21*G14</f>
-        <v>4358.7075290348621</v>
+        <v>4512.7940570059955</v>
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
@@ -4389,14 +4388,14 @@
       <c r="N23" s="12"/>
       <c r="O23" s="8"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:18">
       <c r="B24" s="105" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="106"/>
       <c r="D24" s="153">
         <f>D14</f>
-        <v>84000</v>
+        <v>50000</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="124" t="s">
@@ -4404,14 +4403,14 @@
       </c>
       <c r="G24" s="147">
         <f>G21*G17</f>
-        <v>3051.1467592304798</v>
+        <v>3158.985273729249</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="N24" s="12"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:18">
       <c r="B25" s="105" t="s">
         <v>21</v>
       </c>
@@ -4423,21 +4422,21 @@
       </c>
       <c r="G25" s="147">
         <f>IF(G24=0,0,D15/G18)</f>
-        <v>0</v>
+        <v>6056.4111437965048</v>
       </c>
       <c r="H25" s="48"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="2:18" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" ht="13.5" thickBot="1">
       <c r="B26" s="105" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="106"/>
       <c r="D26" s="154">
         <f>G23*G15-J13*G18+G24*G18</f>
-        <v>84000</v>
+        <v>50000</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="130" t="s">
@@ -4445,14 +4444,14 @@
       </c>
       <c r="G26" s="148">
         <f>ROUND(G23*G15+(G24-G25)*G18,2)</f>
-        <v>84000</v>
+        <v>50000</v>
       </c>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="N26" s="12"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:18">
       <c r="B27" s="105"/>
       <c r="C27" s="106"/>
       <c r="D27" s="155"/>
@@ -4466,7 +4465,7 @@
       <c r="L27" s="12"/>
       <c r="N27" s="12"/>
     </row>
-    <row r="28" spans="2:18" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18" ht="13.5" thickBot="1">
       <c r="B28" s="119" t="s">
         <v>23</v>
       </c>
@@ -4481,7 +4480,7 @@
       <c r="H28" s="25"/>
       <c r="N28" s="12"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:18">
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4491,7 +4490,7 @@
       <c r="H29" s="25"/>
       <c r="N29" s="12"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:18">
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4499,11 +4498,11 @@
       <c r="G30" s="5"/>
       <c r="N30" s="12"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:18">
       <c r="K31" s="11"/>
       <c r="N31" s="12"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:18">
       <c r="E32" s="14"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -4514,7 +4513,7 @@
       <c r="L32" s="11"/>
       <c r="N32" s="12"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:14">
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="9"/>
@@ -4525,7 +4524,7 @@
       <c r="L33" s="6"/>
       <c r="N33" s="12"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:14">
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="196"/>
@@ -4533,7 +4532,7 @@
       <c r="L34" s="6"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:14">
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="193"/>
@@ -4541,11 +4540,11 @@
       <c r="L35" s="12"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:14">
       <c r="D36" s="193"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:14">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="193"/>
@@ -4554,65 +4553,65 @@
       <c r="I37" s="9"/>
       <c r="N37" s="6"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:14">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:14">
       <c r="D39" s="14"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:14">
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:14">
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:14">
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:14">
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:14">
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:14">
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:14">
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14">
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:14">
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="12:14">
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="12:14">
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
@@ -4632,19 +4631,19 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="22" customWidth="1"/>
-    <col min="2" max="4" width="13.6640625" style="38" customWidth="1"/>
-    <col min="5" max="6" width="19.1640625" style="38" customWidth="1"/>
-    <col min="7" max="10" width="13.6640625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="22" customWidth="1"/>
-    <col min="12" max="12" width="21.5" style="22" customWidth="1"/>
-    <col min="13" max="13" width="25.83203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="22"/>
+    <col min="1" max="1" width="2.42578125" style="22" customWidth="1"/>
+    <col min="2" max="4" width="13.7109375" style="38" customWidth="1"/>
+    <col min="5" max="6" width="19.140625" style="38" customWidth="1"/>
+    <col min="7" max="10" width="13.7109375" style="22" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="22" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="15" customHeight="1">
       <c r="B1" s="41" t="s">
         <v>30</v>
       </c>
@@ -4660,7 +4659,7 @@
       <c r="L1" s="212"/>
       <c r="M1" s="212"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13">
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -4677,12 +4676,12 @@
         <v>146</v>
       </c>
       <c r="K2" s="212"/>
-      <c r="L2" s="222" t="s">
+      <c r="L2" s="226" t="s">
         <v>146</v>
       </c>
-      <c r="M2" s="223"/>
+      <c r="M2" s="227"/>
     </row>
-    <row r="3" spans="2:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="25.5">
       <c r="B3" s="84" t="s">
         <v>28</v>
       </c>
@@ -4711,12 +4710,12 @@
         <v>188</v>
       </c>
       <c r="K3" s="212"/>
-      <c r="L3" s="222" t="s">
+      <c r="L3" s="226" t="s">
         <v>189</v>
       </c>
-      <c r="M3" s="223"/>
+      <c r="M3" s="227"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13">
       <c r="B4" s="87">
         <v>2016</v>
       </c>
@@ -4753,7 +4752,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13">
       <c r="B5" s="162">
         <v>2017</v>
       </c>
@@ -4792,7 +4791,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13">
       <c r="B6" s="85">
         <v>2018</v>
       </c>
@@ -4836,7 +4835,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13">
       <c r="B7" s="85">
         <v>2019</v>
       </c>
@@ -4876,7 +4875,7 @@
       <c r="L7" s="212"/>
       <c r="M7" s="212"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13">
       <c r="B8" s="86">
         <v>2020</v>
       </c>
@@ -4916,7 +4915,7 @@
       <c r="L8" s="212"/>
       <c r="M8" s="212"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13">
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
@@ -4930,7 +4929,7 @@
       <c r="L9" s="212"/>
       <c r="M9" s="212"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13">
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
@@ -4944,7 +4943,7 @@
       <c r="L10" s="212"/>
       <c r="M10" s="212"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13">
       <c r="B11" s="84" t="s">
         <v>157</v>
       </c>
@@ -4966,7 +4965,7 @@
       <c r="L11" s="212"/>
       <c r="M11" s="212"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13">
       <c r="B12" s="174" t="s">
         <v>164</v>
       </c>
@@ -4991,7 +4990,7 @@
       <c r="L12" s="212"/>
       <c r="M12" s="212"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13">
       <c r="B13" s="176" t="s">
         <v>165</v>
       </c>
@@ -5016,7 +5015,7 @@
       <c r="L13" s="212"/>
       <c r="M13" s="212"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13">
       <c r="B14" s="176" t="s">
         <v>166</v>
       </c>
@@ -5041,7 +5040,7 @@
       <c r="L14" s="212"/>
       <c r="M14" s="212"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13">
       <c r="B15" s="176" t="s">
         <v>167</v>
       </c>
@@ -5066,7 +5065,7 @@
       <c r="L15" s="212"/>
       <c r="M15" s="212"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13">
       <c r="B16" s="176" t="s">
         <v>168</v>
       </c>
@@ -5091,7 +5090,7 @@
       <c r="L16" s="212"/>
       <c r="M16" s="212"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15">
       <c r="B17" s="176" t="s">
         <v>169</v>
       </c>
@@ -5116,7 +5115,7 @@
       <c r="L17" s="212"/>
       <c r="M17" s="212"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15">
       <c r="B18" s="176" t="s">
         <v>170</v>
       </c>
@@ -5141,7 +5140,7 @@
       <c r="L18" s="212"/>
       <c r="M18" s="212"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15">
       <c r="B19" s="176" t="s">
         <v>171</v>
       </c>
@@ -5168,7 +5167,7 @@
       <c r="N19" s="157"/>
       <c r="O19" s="157"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15">
       <c r="B20" s="176" t="s">
         <v>172</v>
       </c>
@@ -5195,7 +5194,7 @@
       <c r="N20" s="157"/>
       <c r="O20" s="157"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15">
       <c r="B21" s="176" t="s">
         <v>173</v>
       </c>
@@ -5220,7 +5219,7 @@
       <c r="L21" s="212"/>
       <c r="M21" s="212"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15">
       <c r="B22" s="176" t="s">
         <v>174</v>
       </c>
@@ -5245,7 +5244,7 @@
       <c r="L22" s="212"/>
       <c r="M22" s="212"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15">
       <c r="B23" s="177" t="s">
         <v>175</v>
       </c>
@@ -5270,7 +5269,7 @@
       <c r="L23" s="212"/>
       <c r="M23" s="212"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15">
       <c r="B24" s="190" t="s">
         <v>178</v>
       </c>
@@ -5308,9 +5307,9 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:127">
       <c r="A1" s="80">
         <v>1</v>
       </c>
@@ -5693,7 +5692,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:127">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -5891,7 +5890,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:127">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -6271,7 +6270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:127">
       <c r="A4" s="28">
         <v>16</v>
       </c>
@@ -6654,7 +6653,7 @@
         <v>40.668999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:127">
       <c r="A5" s="28">
         <v>17</v>
       </c>
@@ -7037,7 +7036,7 @@
         <v>40.021000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:127">
       <c r="A6" s="28">
         <v>18</v>
       </c>
@@ -7420,7 +7419,7 @@
         <v>39.366999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:127">
       <c r="A7" s="28">
         <v>19</v>
       </c>
@@ -7803,7 +7802,7 @@
         <v>38.707999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:127">
       <c r="A8" s="28">
         <v>20</v>
       </c>
@@ -8186,7 +8185,7 @@
         <v>38.043999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:127">
       <c r="A9" s="28">
         <v>21</v>
       </c>
@@ -8569,7 +8568,7 @@
         <v>37.374000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:127">
       <c r="A10" s="28">
         <v>22</v>
       </c>
@@ -8952,7 +8951,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:127">
       <c r="A11" s="28">
         <v>23</v>
       </c>
@@ -9335,7 +9334,7 @@
         <v>36.020000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:127">
       <c r="A12" s="28">
         <v>24</v>
       </c>
@@ -9718,7 +9717,7 @@
         <v>35.334000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:127">
       <c r="A13" s="28">
         <v>25</v>
       </c>
@@ -10101,7 +10100,7 @@
         <v>34.642000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:127">
       <c r="A14" s="28">
         <v>26</v>
       </c>
@@ -10484,7 +10483,7 @@
         <v>33.944000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:127">
       <c r="A15" s="28">
         <v>27</v>
       </c>
@@ -10867,7 +10866,7 @@
         <v>33.24</v>
       </c>
     </row>
-    <row r="16" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:127">
       <c r="A16" s="28">
         <v>28</v>
       </c>
@@ -11250,7 +11249,7 @@
         <v>32.529000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:127">
       <c r="A17" s="28">
         <v>29</v>
       </c>
@@ -11633,7 +11632,7 @@
         <v>31.812999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:127">
       <c r="A18" s="28">
         <v>30</v>
       </c>
@@ -12016,7 +12015,7 @@
         <v>31.091000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:127">
       <c r="A19" s="28">
         <v>31</v>
       </c>
@@ -12399,7 +12398,7 @@
         <v>30.361999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:127">
       <c r="A20" s="28">
         <v>32</v>
       </c>
@@ -12782,7 +12781,7 @@
         <v>29.628</v>
       </c>
     </row>
-    <row r="21" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:127">
       <c r="A21" s="28">
         <v>33</v>
       </c>
@@ -13165,7 +13164,7 @@
         <v>28.888999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:127">
       <c r="A22" s="28">
         <v>34</v>
       </c>
@@ -13548,7 +13547,7 @@
         <v>28.143999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:127">
       <c r="A23" s="28">
         <v>35</v>
       </c>
@@ -13931,7 +13930,7 @@
         <v>27.391999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:127">
       <c r="A24" s="28">
         <v>36</v>
       </c>
@@ -14314,7 +14313,7 @@
         <v>26.635000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:127">
       <c r="A25" s="28">
         <v>37</v>
       </c>
@@ -14697,7 +14696,7 @@
         <v>25.870999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:127">
       <c r="A26" s="28">
         <v>38</v>
       </c>
@@ -15080,7 +15079,7 @@
         <v>25.102</v>
       </c>
     </row>
-    <row r="27" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:127">
       <c r="A27" s="28">
         <v>39</v>
       </c>
@@ -15463,7 +15462,7 @@
         <v>24.327000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:127">
       <c r="A28" s="28">
         <v>40</v>
       </c>
@@ -15846,7 +15845,7 @@
         <v>23.545000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:127">
       <c r="A29" s="28">
         <v>41</v>
       </c>
@@ -16229,7 +16228,7 @@
         <v>22.757999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:127">
       <c r="A30" s="28">
         <v>42</v>
       </c>
@@ -16612,7 +16611,7 @@
         <v>21.965</v>
       </c>
     </row>
-    <row r="31" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:127">
       <c r="A31" s="28">
         <v>43</v>
       </c>
@@ -16995,7 +16994,7 @@
         <v>21.166</v>
       </c>
     </row>
-    <row r="32" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:127">
       <c r="A32" s="28">
         <v>44</v>
       </c>
@@ -17378,7 +17377,7 @@
         <v>20.361000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:127">
       <c r="A33" s="28">
         <v>45</v>
       </c>
@@ -17761,7 +17760,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="34" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:127">
       <c r="A34" s="28">
         <v>46</v>
       </c>
@@ -18144,7 +18143,7 @@
         <v>18.734000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:127">
       <c r="A35" s="28">
         <v>47</v>
       </c>
@@ -18527,7 +18526,7 @@
         <v>17.913</v>
       </c>
     </row>
-    <row r="36" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:127">
       <c r="A36" s="28">
         <v>48</v>
       </c>
@@ -18910,7 +18909,7 @@
         <v>17.085999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:127">
       <c r="A37" s="28">
         <v>49</v>
       </c>
@@ -19293,7 +19292,7 @@
         <v>16.253</v>
       </c>
     </row>
-    <row r="38" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:127">
       <c r="A38" s="28">
         <v>50</v>
       </c>
@@ -19676,7 +19675,7 @@
         <v>15.414</v>
       </c>
     </row>
-    <row r="39" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:127">
       <c r="A39" s="28">
         <v>51</v>
       </c>
@@ -20059,7 +20058,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="40" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:127">
       <c r="A40" s="28">
         <v>52</v>
       </c>
@@ -20442,7 +20441,7 @@
         <v>13.721</v>
       </c>
     </row>
-    <row r="41" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:127">
       <c r="A41" s="28">
         <v>53</v>
       </c>
@@ -20825,7 +20824,7 @@
         <v>12.865</v>
       </c>
     </row>
-    <row r="42" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:127">
       <c r="A42" s="28">
         <v>54</v>
       </c>
@@ -21208,7 +21207,7 @@
         <v>12.003</v>
       </c>
     </row>
-    <row r="43" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:127">
       <c r="A43" s="28">
         <v>55</v>
       </c>
@@ -21591,7 +21590,7 @@
         <v>11.134</v>
       </c>
     </row>
-    <row r="44" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:127">
       <c r="A44" s="28">
         <v>56</v>
       </c>
@@ -21974,7 +21973,7 @@
         <v>10.259</v>
       </c>
     </row>
-    <row r="45" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:127">
       <c r="A45" s="28">
         <v>57</v>
       </c>
@@ -22357,7 +22356,7 @@
         <v>9.375</v>
       </c>
     </row>
-    <row r="46" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:127">
       <c r="A46" s="28">
         <v>58</v>
       </c>
@@ -22740,7 +22739,7 @@
         <v>8.4830000000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:127">
       <c r="A47" s="28">
         <v>59</v>
       </c>
@@ -23123,7 +23122,7 @@
         <v>7.5830000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:127">
       <c r="A48" s="28">
         <v>60</v>
       </c>
@@ -23506,7 +23505,7 @@
         <v>6.673</v>
       </c>
     </row>
-    <row r="49" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:127">
       <c r="A49" s="28">
         <v>61</v>
       </c>
@@ -23889,7 +23888,7 @@
         <v>5.7539999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:127">
       <c r="A50" s="28">
         <v>62</v>
       </c>
@@ -24272,7 +24271,7 @@
         <v>4.8250000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:127">
       <c r="A51" s="28">
         <v>63</v>
       </c>
@@ -24655,7 +24654,7 @@
         <v>3.8849999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:127">
       <c r="A52" s="28">
         <v>64</v>
       </c>
@@ -25038,7 +25037,7 @@
         <v>2.9340000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:127">
       <c r="A53" s="28">
         <v>65</v>
       </c>
@@ -25421,7 +25420,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="54" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:127">
       <c r="A54" s="28">
         <v>66</v>
       </c>
@@ -25804,7 +25803,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:127">
       <c r="A55" s="28">
         <v>67</v>
       </c>
@@ -26187,7 +26186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:127">
       <c r="A56" s="28">
         <v>68</v>
       </c>
@@ -26570,7 +26569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:127">
       <c r="A57" s="28">
         <v>69</v>
       </c>
@@ -26953,7 +26952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:127">
       <c r="A58" s="28">
         <v>70</v>
       </c>
@@ -27336,7 +27335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:127">
       <c r="A59" s="28">
         <v>71</v>
       </c>
@@ -27719,7 +27718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:127">
       <c r="A60" s="28">
         <v>72</v>
       </c>
@@ -28102,7 +28101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:127">
       <c r="A61" s="28">
         <v>73</v>
       </c>
@@ -28485,7 +28484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:127">
       <c r="A62" s="28">
         <v>74</v>
       </c>
@@ -28868,7 +28867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:127">
       <c r="A63" s="28">
         <v>75</v>
       </c>
@@ -29251,7 +29250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:127">
       <c r="A64" s="28">
         <v>76</v>
       </c>
@@ -29634,7 +29633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:127">
       <c r="A65" s="28">
         <v>77</v>
       </c>
@@ -30017,7 +30016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:127">
       <c r="A66" s="28">
         <v>78</v>
       </c>
@@ -30400,7 +30399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:127">
       <c r="A67" s="28">
         <v>79</v>
       </c>
@@ -30783,7 +30782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:127">
       <c r="A68" s="28">
         <v>80</v>
       </c>
@@ -31166,7 +31165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:127">
       <c r="A69" s="28">
         <v>81</v>
       </c>
@@ -31549,7 +31548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:127">
       <c r="A70" s="28">
         <v>82</v>
       </c>
@@ -31932,7 +31931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:127">
       <c r="A71" s="28">
         <v>83</v>
       </c>
@@ -32315,7 +32314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:127">
       <c r="A72" s="28">
         <v>84</v>
       </c>
@@ -32698,7 +32697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:127">
       <c r="A73" s="28">
         <v>85</v>
       </c>
@@ -33081,7 +33080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:127">
       <c r="A74" s="28">
         <v>86</v>
       </c>
@@ -33464,7 +33463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:127">
       <c r="A75" s="28">
         <v>87</v>
       </c>
@@ -33847,7 +33846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:127">
       <c r="A76" s="28">
         <v>88</v>
       </c>
@@ -34230,7 +34229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:127">
       <c r="A77" s="28">
         <v>89</v>
       </c>
@@ -34613,7 +34612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:127">
       <c r="A78" s="28">
         <v>90</v>
       </c>
@@ -34996,7 +34995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:127">
       <c r="A79" s="28">
         <v>91</v>
       </c>
@@ -35379,7 +35378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:127">
       <c r="A80" s="28">
         <v>92</v>
       </c>
@@ -35762,7 +35761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:127">
       <c r="A81" s="28">
         <v>93</v>
       </c>
@@ -36145,7 +36144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:127">
       <c r="A82" s="28">
         <v>94</v>
       </c>
@@ -36528,7 +36527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:127">
       <c r="A83" s="28">
         <v>95</v>
       </c>
@@ -36911,7 +36910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:127">
       <c r="A84" s="28">
         <v>96</v>
       </c>
@@ -37294,7 +37293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:127">
       <c r="A85" s="28">
         <v>97</v>
       </c>
@@ -37677,7 +37676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:127">
       <c r="A86" s="28">
         <v>98</v>
       </c>
@@ -38060,7 +38059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:127">
       <c r="A87" s="28">
         <v>99</v>
       </c>
@@ -38443,7 +38442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:127">
       <c r="A88" s="28">
         <v>100</v>
       </c>
@@ -38826,7 +38825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:127">
       <c r="A89" s="28">
         <v>101</v>
       </c>
@@ -39209,7 +39208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:127">
       <c r="A90" s="28">
         <v>102</v>
       </c>
@@ -39592,7 +39591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:127" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:127">
       <c r="A91" s="28">
         <v>103</v>
       </c>
@@ -39989,14 +39988,14 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="19"/>
-    <col min="2" max="2" width="12.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="19"/>
+    <col min="1" max="1" width="8.85546875" style="19"/>
+    <col min="2" max="2" width="12.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="77" t="s">
         <v>28</v>
       </c>
@@ -40004,7 +40003,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="31">
         <v>2010</v>
       </c>
@@ -40013,7 +40012,7 @@
       </c>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="33">
         <v>2011</v>
       </c>
@@ -40021,7 +40020,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="33">
         <v>2012</v>
       </c>
@@ -40030,7 +40029,7 @@
       </c>
       <c r="C4" s="26"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="33">
         <v>2013</v>
       </c>
@@ -40038,7 +40037,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="33">
         <v>2014</v>
       </c>
@@ -40046,7 +40045,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="34">
         <v>2015</v>
       </c>
@@ -40054,7 +40053,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="34">
         <v>2016</v>
       </c>
@@ -40062,7 +40061,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="34">
         <v>2017</v>
       </c>
@@ -40073,7 +40072,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="39">
         <v>2018</v>
       </c>
@@ -40082,7 +40081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="39">
         <v>2019</v>
       </c>
@@ -40091,7 +40090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="40">
         <v>2020</v>
       </c>
@@ -40115,223 +40114,223 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="51.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="23"/>
-    <col min="4" max="4" width="11.1640625" style="23" customWidth="1"/>
-    <col min="5" max="256" width="8.83203125" style="23"/>
-    <col min="257" max="257" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="259" max="512" width="8.83203125" style="23"/>
-    <col min="513" max="513" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="515" max="768" width="8.83203125" style="23"/>
-    <col min="769" max="769" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="771" max="1024" width="8.83203125" style="23"/>
-    <col min="1025" max="1025" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1280" width="8.83203125" style="23"/>
-    <col min="1281" max="1281" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1536" width="8.83203125" style="23"/>
-    <col min="1537" max="1537" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1792" width="8.83203125" style="23"/>
-    <col min="1793" max="1793" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1795" max="2048" width="8.83203125" style="23"/>
-    <col min="2049" max="2049" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2304" width="8.83203125" style="23"/>
-    <col min="2305" max="2305" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2560" width="8.83203125" style="23"/>
-    <col min="2561" max="2561" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2816" width="8.83203125" style="23"/>
-    <col min="2817" max="2817" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2819" max="3072" width="8.83203125" style="23"/>
-    <col min="3073" max="3073" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3328" width="8.83203125" style="23"/>
-    <col min="3329" max="3329" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3584" width="8.83203125" style="23"/>
-    <col min="3585" max="3585" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3840" width="8.83203125" style="23"/>
-    <col min="3841" max="3841" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3843" max="4096" width="8.83203125" style="23"/>
-    <col min="4097" max="4097" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4352" width="8.83203125" style="23"/>
-    <col min="4353" max="4353" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4608" width="8.83203125" style="23"/>
-    <col min="4609" max="4609" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4864" width="8.83203125" style="23"/>
-    <col min="4865" max="4865" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4867" max="5120" width="8.83203125" style="23"/>
-    <col min="5121" max="5121" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5376" width="8.83203125" style="23"/>
-    <col min="5377" max="5377" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5632" width="8.83203125" style="23"/>
-    <col min="5633" max="5633" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5888" width="8.83203125" style="23"/>
-    <col min="5889" max="5889" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5891" max="6144" width="8.83203125" style="23"/>
-    <col min="6145" max="6145" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6400" width="8.83203125" style="23"/>
-    <col min="6401" max="6401" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6656" width="8.83203125" style="23"/>
-    <col min="6657" max="6657" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6912" width="8.83203125" style="23"/>
-    <col min="6913" max="6913" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6915" max="7168" width="8.83203125" style="23"/>
-    <col min="7169" max="7169" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7424" width="8.83203125" style="23"/>
-    <col min="7425" max="7425" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7680" width="8.83203125" style="23"/>
-    <col min="7681" max="7681" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7936" width="8.83203125" style="23"/>
-    <col min="7937" max="7937" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7939" max="8192" width="8.83203125" style="23"/>
-    <col min="8193" max="8193" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8448" width="8.83203125" style="23"/>
-    <col min="8449" max="8449" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8704" width="8.83203125" style="23"/>
-    <col min="8705" max="8705" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8960" width="8.83203125" style="23"/>
-    <col min="8961" max="8961" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8963" max="9216" width="8.83203125" style="23"/>
-    <col min="9217" max="9217" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9472" width="8.83203125" style="23"/>
-    <col min="9473" max="9473" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9728" width="8.83203125" style="23"/>
-    <col min="9729" max="9729" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9984" width="8.83203125" style="23"/>
-    <col min="9985" max="9985" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9987" max="10240" width="8.83203125" style="23"/>
-    <col min="10241" max="10241" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10496" width="8.83203125" style="23"/>
-    <col min="10497" max="10497" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10752" width="8.83203125" style="23"/>
-    <col min="10753" max="10753" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10755" max="11008" width="8.83203125" style="23"/>
-    <col min="11009" max="11009" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11264" width="8.83203125" style="23"/>
-    <col min="11265" max="11265" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11520" width="8.83203125" style="23"/>
-    <col min="11521" max="11521" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11776" width="8.83203125" style="23"/>
-    <col min="11777" max="11777" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11779" max="12032" width="8.83203125" style="23"/>
-    <col min="12033" max="12033" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12288" width="8.83203125" style="23"/>
-    <col min="12289" max="12289" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12544" width="8.83203125" style="23"/>
-    <col min="12545" max="12545" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12800" width="8.83203125" style="23"/>
-    <col min="12801" max="12801" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12803" max="13056" width="8.83203125" style="23"/>
-    <col min="13057" max="13057" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13312" width="8.83203125" style="23"/>
-    <col min="13313" max="13313" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13568" width="8.83203125" style="23"/>
-    <col min="13569" max="13569" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13824" width="8.83203125" style="23"/>
-    <col min="13825" max="13825" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13827" max="14080" width="8.83203125" style="23"/>
-    <col min="14081" max="14081" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14336" width="8.83203125" style="23"/>
-    <col min="14337" max="14337" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14592" width="8.83203125" style="23"/>
-    <col min="14593" max="14593" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14848" width="8.83203125" style="23"/>
-    <col min="14849" max="14849" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14851" max="15104" width="8.83203125" style="23"/>
-    <col min="15105" max="15105" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15360" width="8.83203125" style="23"/>
-    <col min="15361" max="15361" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15616" width="8.83203125" style="23"/>
-    <col min="15617" max="15617" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15872" width="8.83203125" style="23"/>
-    <col min="15873" max="15873" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15875" max="16128" width="8.83203125" style="23"/>
-    <col min="16129" max="16129" width="47.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16384" width="8.83203125" style="23"/>
+    <col min="1" max="1" width="51.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="23"/>
+    <col min="4" max="4" width="11.140625" style="23" customWidth="1"/>
+    <col min="5" max="256" width="8.85546875" style="23"/>
+    <col min="257" max="257" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="259" max="512" width="8.85546875" style="23"/>
+    <col min="513" max="513" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="515" max="768" width="8.85546875" style="23"/>
+    <col min="769" max="769" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="771" max="1024" width="8.85546875" style="23"/>
+    <col min="1025" max="1025" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1280" width="8.85546875" style="23"/>
+    <col min="1281" max="1281" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1536" width="8.85546875" style="23"/>
+    <col min="1537" max="1537" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1792" width="8.85546875" style="23"/>
+    <col min="1793" max="1793" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1795" max="2048" width="8.85546875" style="23"/>
+    <col min="2049" max="2049" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2304" width="8.85546875" style="23"/>
+    <col min="2305" max="2305" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2560" width="8.85546875" style="23"/>
+    <col min="2561" max="2561" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2816" width="8.85546875" style="23"/>
+    <col min="2817" max="2817" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2819" max="3072" width="8.85546875" style="23"/>
+    <col min="3073" max="3073" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3328" width="8.85546875" style="23"/>
+    <col min="3329" max="3329" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3584" width="8.85546875" style="23"/>
+    <col min="3585" max="3585" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3840" width="8.85546875" style="23"/>
+    <col min="3841" max="3841" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3843" max="4096" width="8.85546875" style="23"/>
+    <col min="4097" max="4097" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4352" width="8.85546875" style="23"/>
+    <col min="4353" max="4353" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4608" width="8.85546875" style="23"/>
+    <col min="4609" max="4609" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4864" width="8.85546875" style="23"/>
+    <col min="4865" max="4865" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4867" max="5120" width="8.85546875" style="23"/>
+    <col min="5121" max="5121" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5376" width="8.85546875" style="23"/>
+    <col min="5377" max="5377" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5632" width="8.85546875" style="23"/>
+    <col min="5633" max="5633" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5888" width="8.85546875" style="23"/>
+    <col min="5889" max="5889" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5891" max="6144" width="8.85546875" style="23"/>
+    <col min="6145" max="6145" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6400" width="8.85546875" style="23"/>
+    <col min="6401" max="6401" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6656" width="8.85546875" style="23"/>
+    <col min="6657" max="6657" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6912" width="8.85546875" style="23"/>
+    <col min="6913" max="6913" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6915" max="7168" width="8.85546875" style="23"/>
+    <col min="7169" max="7169" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7424" width="8.85546875" style="23"/>
+    <col min="7425" max="7425" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7680" width="8.85546875" style="23"/>
+    <col min="7681" max="7681" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7936" width="8.85546875" style="23"/>
+    <col min="7937" max="7937" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7939" max="8192" width="8.85546875" style="23"/>
+    <col min="8193" max="8193" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8448" width="8.85546875" style="23"/>
+    <col min="8449" max="8449" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8704" width="8.85546875" style="23"/>
+    <col min="8705" max="8705" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8960" width="8.85546875" style="23"/>
+    <col min="8961" max="8961" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8963" max="9216" width="8.85546875" style="23"/>
+    <col min="9217" max="9217" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9472" width="8.85546875" style="23"/>
+    <col min="9473" max="9473" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9728" width="8.85546875" style="23"/>
+    <col min="9729" max="9729" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9984" width="8.85546875" style="23"/>
+    <col min="9985" max="9985" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9987" max="10240" width="8.85546875" style="23"/>
+    <col min="10241" max="10241" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10496" width="8.85546875" style="23"/>
+    <col min="10497" max="10497" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10752" width="8.85546875" style="23"/>
+    <col min="10753" max="10753" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10755" max="11008" width="8.85546875" style="23"/>
+    <col min="11009" max="11009" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11264" width="8.85546875" style="23"/>
+    <col min="11265" max="11265" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11520" width="8.85546875" style="23"/>
+    <col min="11521" max="11521" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11776" width="8.85546875" style="23"/>
+    <col min="11777" max="11777" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11779" max="12032" width="8.85546875" style="23"/>
+    <col min="12033" max="12033" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12288" width="8.85546875" style="23"/>
+    <col min="12289" max="12289" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12544" width="8.85546875" style="23"/>
+    <col min="12545" max="12545" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12800" width="8.85546875" style="23"/>
+    <col min="12801" max="12801" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12803" max="13056" width="8.85546875" style="23"/>
+    <col min="13057" max="13057" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13312" width="8.85546875" style="23"/>
+    <col min="13313" max="13313" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13568" width="8.85546875" style="23"/>
+    <col min="13569" max="13569" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13824" width="8.85546875" style="23"/>
+    <col min="13825" max="13825" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13827" max="14080" width="8.85546875" style="23"/>
+    <col min="14081" max="14081" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14336" width="8.85546875" style="23"/>
+    <col min="14337" max="14337" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14592" width="8.85546875" style="23"/>
+    <col min="14593" max="14593" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14848" width="8.85546875" style="23"/>
+    <col min="14849" max="14849" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14851" max="15104" width="8.85546875" style="23"/>
+    <col min="15105" max="15105" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15360" width="8.85546875" style="23"/>
+    <col min="15361" max="15361" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15616" width="8.85546875" style="23"/>
+    <col min="15617" max="15617" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15872" width="8.85546875" style="23"/>
+    <col min="15873" max="15873" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15875" max="16128" width="8.85546875" style="23"/>
+    <col min="16129" max="16129" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="24">
         <f>'BPF_Particuliere Beveiliging'!D7</f>
-        <v>42736</v>
+        <v>42767</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="24">
         <f>'BPF_Particuliere Beveiliging'!D8</f>
-        <v>42767</v>
+        <v>42920</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="23" t="s">
         <v>106</v>
       </c>
@@ -40343,7 +40342,7 @@
       </c>
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="23" t="s">
         <v>107</v>
       </c>
@@ -40355,31 +40354,31 @@
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="23" t="s">
         <v>108</v>
       </c>
       <c r="B6" s="7">
         <f>((YEAR(B3)-YEAR(B2))*12+MONTH(B3)-1-MONTH(B2))*30</f>
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="23" t="s">
         <v>109</v>
       </c>
       <c r="B7" s="7">
         <f>SUM(B4:B6)</f>
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="23" t="s">
         <v>110</v>
       </c>
       <c r="B8" s="7">
         <f>ROUND(B7/30,0)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -40396,14 +40395,14 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="19"/>
-    <col min="2" max="2" width="11.33203125" style="19" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="19"/>
+    <col min="1" max="1" width="8.85546875" style="19"/>
+    <col min="2" max="2" width="11.28515625" style="19" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -40411,7 +40410,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -40420,7 +40419,7 @@
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -40428,7 +40427,7 @@
         <v>42906</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="25" t="s">
         <v>128</v>
       </c>
@@ -40436,7 +40435,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="25" t="s">
         <v>129</v>
       </c>
@@ -40444,7 +40443,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="25" t="s">
         <v>130</v>
       </c>
@@ -40452,31 +40451,31 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="20"/>
       <c r="B7" s="74"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="18" t="s">
         <v>133</v>
       </c>
       <c r="B10" s="20"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="18"/>
       <c r="B11" s="20"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="19">
         <v>1</v>
       </c>
@@ -40484,7 +40483,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="19">
         <v>2</v>
       </c>
@@ -40492,7 +40491,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="19">
         <v>3</v>
       </c>
@@ -40500,7 +40499,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="19">
         <v>4</v>
       </c>
@@ -40508,7 +40507,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="20">
         <v>5</v>
       </c>
@@ -40516,13 +40515,13 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="20"/>
       <c r="B17" s="26" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="20">
         <v>6</v>
       </c>
@@ -40530,20 +40529,20 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="18" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="19">
         <v>1</v>
       </c>
@@ -40551,7 +40550,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" s="19">
         <v>2</v>
       </c>
@@ -40559,12 +40558,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="B26" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" s="19">
         <v>3</v>
       </c>
@@ -40572,7 +40571,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" s="19">
         <v>4</v>
       </c>
